--- a/XML_SpreadSheets/control_signals_template.xlsx
+++ b/XML_SpreadSheets/control_signals_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\MIPS_PROCESSOR\XML_SpreadSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245402C9-13FF-49F6-BCB5-C026FC13552D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E889D533-963B-49A7-BC50-1BE958973CB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
   <si>
     <t>Instruction</t>
   </si>
@@ -392,6 +392,9 @@
   <si>
     <t>srav, sra</t>
   </si>
+  <si>
+    <t>0x101011</t>
+  </si>
 </sst>
 </file>
 
@@ -461,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -503,6 +506,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,10 +737,10 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1035,8 +1041,8 @@
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
+      <c r="B6" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>25</v>

--- a/XML_SpreadSheets/control_signals_template.xlsx
+++ b/XML_SpreadSheets/control_signals_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\MIPS_PROCESSOR\XML_SpreadSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E889D533-963B-49A7-BC50-1BE958973CB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9BBBD8-FB09-44F8-8FBF-75CA4F26E818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>Instruction</t>
   </si>
@@ -392,9 +392,6 @@
   <si>
     <t>srav, sra</t>
   </si>
-  <si>
-    <t>0x101011</t>
-  </si>
 </sst>
 </file>
 
@@ -464,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -508,6 +505,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -737,10 +737,10 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1042,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>25</v>
@@ -1987,8 +1987,8 @@
       <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>72</v>
+      <c r="E23" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>

--- a/XML_SpreadSheets/control_signals_template.xlsx
+++ b/XML_SpreadSheets/control_signals_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\MIPS_PROCESSOR\XML_SpreadSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9BBBD8-FB09-44F8-8FBF-75CA4F26E818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4535F08-D5C5-43BD-86D0-A9EA6D8C1195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
   <si>
     <t>Instruction</t>
   </si>
@@ -372,25 +372,31 @@
     <t>1101</t>
   </si>
   <si>
-    <t>Requires shifting</t>
-  </si>
-  <si>
-    <t>srl, srav, sll, sra, sllv, srlv, lui</t>
-  </si>
-  <si>
     <t>*lui is a special case: shamt = 16 bits</t>
   </si>
   <si>
-    <t>Left Shift?</t>
+    <t>beq</t>
   </si>
   <si>
-    <t>sll, sllv, lui</t>
+    <t>OPCODE</t>
   </si>
   <si>
-    <t>Signed shifted commands:</t>
+    <t>shamt</t>
   </si>
   <si>
-    <t>srav, sra</t>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>SHAMT</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>jr</t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -508,6 +514,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -737,10 +746,10 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2312,13 +2321,13 @@
     </row>
     <row r="30" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -2349,12 +2358,14 @@
     </row>
     <row r="31" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="15"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -2387,9 +2398,11 @@
         <v>90</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="15"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -2418,9 +2431,15 @@
       <c r="AC32" s="12"/>
     </row>
     <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2449,9 +2468,15 @@
       <c r="AC33" s="3"/>
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>

--- a/XML_SpreadSheets/control_signals_template.xlsx
+++ b/XML_SpreadSheets/control_signals_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\MIPS_PROCESSOR\XML_SpreadSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4535F08-D5C5-43BD-86D0-A9EA6D8C1195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD6447-FFB6-416F-881F-BC556E7CB162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="96">
   <si>
     <t>Instruction</t>
   </si>
@@ -372,38 +372,44 @@
     <t>1101</t>
   </si>
   <si>
-    <t>*lui is a special case: shamt = 16 bits</t>
-  </si>
-  <si>
     <t>beq</t>
-  </si>
-  <si>
-    <t>OPCODE</t>
-  </si>
-  <si>
-    <t>shamt</t>
-  </si>
-  <si>
-    <t>bne</t>
   </si>
   <si>
     <t>j</t>
   </si>
   <si>
-    <t>SHAMT</t>
+    <t>0001 1001</t>
   </si>
   <si>
-    <t>jal</t>
+    <t>000101</t>
   </si>
   <si>
-    <t>jr</t>
+    <t>----------</t>
+  </si>
+  <si>
+    <t>---------</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>bne[up]</t>
+  </si>
+  <si>
+    <t>jal[up]</t>
+  </si>
+  <si>
+    <t>jr[up]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -425,11 +431,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -439,6 +440,18 @@
       <i/>
       <sz val="12"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -495,19 +508,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -516,7 +517,19 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -746,10 +759,10 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1050,7 +1063,7 @@
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1996,7 +2009,7 @@
       <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="4">
@@ -2207,7 +2220,7 @@
       <c r="A27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -2319,136 +2332,208 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
     </row>
-    <row r="30" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="18">
+        <v>0</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="17">
+        <v>0</v>
+      </c>
+      <c r="H30" s="17">
+        <v>0</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="17">
+        <v>0</v>
+      </c>
+      <c r="K30" s="17">
+        <v>1</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+    </row>
+    <row r="31" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0</v>
+      </c>
+      <c r="H31" s="17">
+        <v>0</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" s="17">
+        <v>0</v>
+      </c>
+      <c r="K31" s="17">
+        <v>1</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+    </row>
+    <row r="32" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-    </row>
-    <row r="31" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="B32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+      <c r="H32" s="17">
+        <v>0</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="17">
+        <v>1</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+    </row>
+    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-    </row>
-    <row r="32" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="15" t="s">
+      <c r="D33" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-    </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="16" t="s">
+      <c r="F33" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="G33" s="17">
+        <v>0</v>
+      </c>
+      <c r="H33" s="17">
+        <v>0</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" s="17">
+        <v>1</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -2468,24 +2553,38 @@
       <c r="AC33" s="3"/>
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="16" t="s">
+      <c r="A34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="E34" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0</v>
+      </c>
+      <c r="H34" s="17">
+        <v>0</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="17">
+        <v>1</v>
+      </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -32458,6 +32557,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/XML_SpreadSheets/control_signals_template.xlsx
+++ b/XML_SpreadSheets/control_signals_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\MIPS_PROCESSOR\XML_SpreadSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD6447-FFB6-416F-881F-BC556E7CB162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D94488F-E18B-4CA5-9DE5-F08277BB2350}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
   <si>
     <t>Instruction</t>
   </si>
@@ -759,10 +759,10 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2473,8 +2473,8 @@
       <c r="J32" s="17">
         <v>1</v>
       </c>
-      <c r="K32" s="17" t="s">
-        <v>91</v>
+      <c r="K32" s="17">
+        <v>0</v>
       </c>
       <c r="L32" s="17">
         <v>0</v>
@@ -2528,8 +2528,8 @@
       <c r="J33" s="17">
         <v>1</v>
       </c>
-      <c r="K33" s="17" t="s">
-        <v>91</v>
+      <c r="K33" s="17">
+        <v>0</v>
       </c>
       <c r="L33" s="17">
         <v>0</v>
@@ -2583,7 +2583,9 @@
       <c r="J34" s="17">
         <v>1</v>
       </c>
-      <c r="K34" s="17"/>
+      <c r="K34" s="17">
+        <v>0</v>
+      </c>
       <c r="L34" s="17"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>

--- a/XML_SpreadSheets/control_signals_template.xlsx
+++ b/XML_SpreadSheets/control_signals_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\MIPS_PROCESSOR\XML_SpreadSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D94488F-E18B-4CA5-9DE5-F08277BB2350}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEA0C87-D7A6-452E-A854-47C492565516}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,10 +759,10 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="17" t="s">
         <v>91</v>

--- a/XML_SpreadSheets/control_signals_template.xlsx
+++ b/XML_SpreadSheets/control_signals_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\MIPS_PROCESSOR\XML_SpreadSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEA0C87-D7A6-452E-A854-47C492565516}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8367CF53-0DF9-4DBC-8F88-8A7D310E7158}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,13 +396,13 @@
     <t>xx</t>
   </si>
   <si>
-    <t>bne[up]</t>
+    <t>jal</t>
   </si>
   <si>
-    <t>jal[up]</t>
+    <t>jr</t>
   </si>
   <si>
-    <t>jr[up]</t>
+    <t>bne</t>
   </si>
 </sst>
 </file>
@@ -759,10 +759,10 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="31" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>88</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>77</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>14</v>
@@ -2586,7 +2586,9 @@
       <c r="K34" s="17">
         <v>0</v>
       </c>
-      <c r="L34" s="17"/>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
